--- a/ConfigData/Xlsx/HeroPower.xlsx
+++ b/ConfigData/Xlsx/HeroPower.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="HeroSkill" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -180,13 +180,25 @@
   </si>
   <si>
     <t>消耗MP来获取一定的PP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使指定单位获得一些魔甲</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill11</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -909,46 +921,6 @@
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1127,76 +1099,48 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1209,29 +1153,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:F13" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="8">
-  <autoFilter ref="A3:F13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:F14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="A3:F14"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Id" dataDxfId="7"/>
-    <tableColumn id="2" name="Name" dataDxfId="6"/>
-    <tableColumn id="3" name="Des" dataDxfId="5"/>
-    <tableColumn id="4" name="Type" dataDxfId="4"/>
-    <tableColumn id="5" name="CardId" dataDxfId="3"/>
-    <tableColumn id="6" name="Icon" dataDxfId="2"/>
+    <tableColumn id="1" name="Id" dataDxfId="5"/>
+    <tableColumn id="2" name="Name" dataDxfId="4"/>
+    <tableColumn id="3" name="Des" dataDxfId="3"/>
+    <tableColumn id="4" name="Type" dataDxfId="2"/>
+    <tableColumn id="5" name="CardId" dataDxfId="1"/>
+    <tableColumn id="6" name="Icon" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACD"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1299,6 +1243,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1334,6 +1295,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1510,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1783,6 +1761,26 @@
         <v>37</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>31100001</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>53200001</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ConfigData/Xlsx/HeroPower.xlsx
+++ b/ConfigData/Xlsx/HeroPower.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -192,6 +192,28 @@
   </si>
   <si>
     <t>skill11</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill12</t>
+  </si>
+  <si>
+    <t>训练</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升指定单位攻击和最大生命</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill13</t>
+  </si>
+  <si>
+    <t>传送</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使指定我方怪物返回手牌</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -847,7 +869,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,6 +895,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1153,8 +1178,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:F14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="A3:F14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:F16" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="A3:F16"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Id" dataDxfId="5"/>
     <tableColumn id="2" name="Name" dataDxfId="4"/>
@@ -1488,16 +1513,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="32.875" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1779,6 +1804,46 @@
       </c>
       <c r="F14" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>31100002</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>53200002</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>31100003</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>53200003</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/HeroPower.xlsx
+++ b/ConfigData/Xlsx/HeroPower.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView minimized="1" xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="HeroSkill" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -401,7 +401,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,6 +591,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -869,7 +875,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,7 +903,10 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1166,6 +1175,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1200,7 +1277,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1516,7 +1593,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1787,62 +1864,62 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+      <c r="A14" s="9">
         <v>31100001</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="9">
         <v>3</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="9">
         <v>53200001</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
+      <c r="A15" s="9">
         <v>31100002</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="9">
         <v>3</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="9">
         <v>53200002</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
+      <c r="A16" s="9">
         <v>31100003</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="9">
         <v>3</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="9">
         <v>53200003</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="9" t="s">
         <v>50</v>
       </c>
     </row>
